--- a/Lab_Credential.xlsx
+++ b/Lab_Credential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\Accenture_SPLK_19_01_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D47C75-032B-480F-AAFE-C280A42F6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD66D9C-B827-4B1A-AC08-049ED4C5C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D9C2E8B-53EC-4BB6-9A9C-6BD3D6A7AF64}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D9C2E8B-53EC-4BB6-9A9C-6BD3D6A7AF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,12 +391,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,7 +717,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,13 +729,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -768,7 +767,7 @@
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -785,7 +784,7 @@
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -802,7 +801,7 @@
       <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -819,7 +818,7 @@
       <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -836,7 +835,7 @@
       <c r="D7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -853,7 +852,7 @@
       <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -870,7 +869,7 @@
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -887,7 +886,7 @@
       <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -904,7 +903,7 @@
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -921,7 +920,7 @@
       <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -933,12 +932,12 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -950,12 +949,12 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -972,7 +971,7 @@
       <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -989,7 +988,7 @@
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1006,7 +1005,7 @@
       <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1023,7 +1022,7 @@
       <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1040,7 +1039,7 @@
       <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1057,7 +1056,7 @@
       <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1074,7 +1073,7 @@
       <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1091,7 +1090,7 @@
       <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1108,7 +1107,7 @@
       <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1125,7 +1124,7 @@
       <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1142,7 +1141,7 @@
       <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1159,7 +1158,7 @@
       <c r="D26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1176,7 +1175,7 @@
       <c r="D27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1189,7 +1188,7 @@
       <c r="D28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1208,24 +1207,25 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{BACEA425-C42E-4554-9EFC-13D1126C45B5}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{CE92A748-6D45-4ED7-9E18-718FCFD0FE3C}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{F079E853-35B5-4FCC-9CAB-5C9A295B3010}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{BE78ACB0-777F-465B-8962-1941F6F0E352}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{7A72894B-55E9-4C80-BE84-9B54EEDD3C7B}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{96F4EAF2-415C-4BBF-87F6-32B1BD2D2516}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{284777F5-F677-466F-ADC8-C1C8EB5E9F6E}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{BD8339B9-3110-485A-9D78-D19E4C6D2F82}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{9DB54ECE-A1CD-4BEE-BFA2-6F686C3EA90A}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{76FFC06B-2DB8-43E0-A54E-AA697CF85CD5}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{4D0C150D-3078-4739-9F7A-4794AD1C5A96}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{068443D7-59CC-445A-B3A8-456E468FECB8}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{744C391E-7138-4D40-9748-0A60D9847A6D}"/>
-    <hyperlink ref="C27" r:id="rId20" xr:uid="{2FE42358-8881-4D81-8F6B-A96D49CAA850}"/>
-    <hyperlink ref="C16" r:id="rId21" xr:uid="{D615B60C-A6B0-4799-86C3-20FDFE508521}"/>
-    <hyperlink ref="C18" r:id="rId22" xr:uid="{50982AC7-8C7D-413D-898E-9B087F59CFD5}"/>
-    <hyperlink ref="C20" r:id="rId23" xr:uid="{EF93B20F-22D2-4CCD-B1E5-5B285065D286}"/>
-    <hyperlink ref="C22" r:id="rId24" xr:uid="{4F08D74D-EC65-4602-A77A-B49A98A89C63}"/>
-    <hyperlink ref="C24" r:id="rId25" xr:uid="{A1562C6D-E236-43AF-954F-6167E7CD7251}"/>
-    <hyperlink ref="C26" r:id="rId26" xr:uid="{6BC9CCCD-952F-4CAC-A9BD-7318936258BC}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{9E9F9141-BA97-45F5-90A8-F78C0F4C87F3}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{BD8339B9-3110-485A-9D78-D19E4C6D2F82}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{9DB54ECE-A1CD-4BEE-BFA2-6F686C3EA90A}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{76FFC06B-2DB8-43E0-A54E-AA697CF85CD5}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{4D0C150D-3078-4739-9F7A-4794AD1C5A96}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{068443D7-59CC-445A-B3A8-456E468FECB8}"/>
+    <hyperlink ref="C25" r:id="rId15" xr:uid="{744C391E-7138-4D40-9748-0A60D9847A6D}"/>
+    <hyperlink ref="C27" r:id="rId16" xr:uid="{2FE42358-8881-4D81-8F6B-A96D49CAA850}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{D615B60C-A6B0-4799-86C3-20FDFE508521}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{50982AC7-8C7D-413D-898E-9B087F59CFD5}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{EF93B20F-22D2-4CCD-B1E5-5B285065D286}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{4F08D74D-EC65-4602-A77A-B49A98A89C63}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{A1562C6D-E236-43AF-954F-6167E7CD7251}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{6BC9CCCD-952F-4CAC-A9BD-7318936258BC}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{9E9F9141-BA97-45F5-90A8-F78C0F4C87F3}"/>
+    <hyperlink ref="C11" r:id="rId24" xr:uid="{497F5D33-8EDB-46D7-8DBA-ECC2D8ED8D92}"/>
+    <hyperlink ref="C12:C14" r:id="rId25" display="http://54.242.21.20:8000" xr:uid="{82E96F5F-F380-4DCA-8D88-32B10DE10577}"/>
+    <hyperlink ref="C12" r:id="rId26" xr:uid="{9D3C7B6F-1AE9-4777-AADF-6B0EC40A03A4}"/>
+    <hyperlink ref="C13" r:id="rId27" xr:uid="{657EE5AE-461E-4EC9-927F-D7E008AB698D}"/>
+    <hyperlink ref="C14" r:id="rId28" xr:uid="{4CF95B05-FEBB-4A37-AB35-113BFDE287D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lab_Credential.xlsx
+++ b/Lab_Credential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\Accenture_SPLK_19_01_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD66D9C-B827-4B1A-AC08-049ED4C5C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E334F3D-F612-4AE3-9809-D530B0108D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D9C2E8B-53EC-4BB6-9A9C-6BD3D6A7AF64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D9C2E8B-53EC-4BB6-9A9C-6BD3D6A7AF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://54.242.21.20:8000</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>user@123</t>
   </si>
   <si>
-    <t>http://98.93.67.38:8000</t>
-  </si>
-  <si>
     <t>user11</t>
   </si>
   <si>
@@ -289,13 +283,19 @@
   </si>
   <si>
     <t>Labs Details - Accenture</t>
+  </si>
+  <si>
+    <t>http://52.70.9.59:8000/</t>
+  </si>
+  <si>
+    <t>http://54.173.31.94:8000/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +329,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -399,6 +408,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A680065A-BB2B-42F3-A01D-A295B13ED672}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -762,13 +772,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,13 +840,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,13 +857,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,13 +891,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,13 +908,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,13 +925,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,13 +942,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,13 +959,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,13 +976,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,14 +992,14 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>67</v>
+      <c r="C16" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,13 +1010,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,13 +1027,13 @@
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,13 +1044,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,14 +1060,14 @@
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,13 +1078,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,13 +1095,13 @@
         <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1102,13 +1112,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1118,14 +1128,14 @@
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>67</v>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,13 +1146,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1153,13 +1163,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,26 +1180,26 @@
         <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>67</v>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1197,36 +1207,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{B4580AF3-ACB8-425D-8F98-2EB7F92A8FCE}"/>
-    <hyperlink ref="C4:C12" r:id="rId2" display="http://54.242.21.20:8000" xr:uid="{F7957907-64A7-40F8-B98B-B51F697CA1ED}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A56C2C6E-D60E-46AE-BDDC-1A2F82CE3CB0}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{AC750735-9FDD-4DCE-A163-08A677800596}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{D4652B98-2F7F-4CB9-ADE5-6269BCD484E5}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C545FCDF-C6BE-4409-B23D-2ACB1CC897E5}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{BACEA425-C42E-4554-9EFC-13D1126C45B5}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{CE92A748-6D45-4ED7-9E18-718FCFD0FE3C}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{F079E853-35B5-4FCC-9CAB-5C9A295B3010}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{BD8339B9-3110-485A-9D78-D19E4C6D2F82}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{9DB54ECE-A1CD-4BEE-BFA2-6F686C3EA90A}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{76FFC06B-2DB8-43E0-A54E-AA697CF85CD5}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{4D0C150D-3078-4739-9F7A-4794AD1C5A96}"/>
-    <hyperlink ref="C23" r:id="rId14" xr:uid="{068443D7-59CC-445A-B3A8-456E468FECB8}"/>
-    <hyperlink ref="C25" r:id="rId15" xr:uid="{744C391E-7138-4D40-9748-0A60D9847A6D}"/>
-    <hyperlink ref="C27" r:id="rId16" xr:uid="{2FE42358-8881-4D81-8F6B-A96D49CAA850}"/>
-    <hyperlink ref="C16" r:id="rId17" xr:uid="{D615B60C-A6B0-4799-86C3-20FDFE508521}"/>
-    <hyperlink ref="C18" r:id="rId18" xr:uid="{50982AC7-8C7D-413D-898E-9B087F59CFD5}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{EF93B20F-22D2-4CCD-B1E5-5B285065D286}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{4F08D74D-EC65-4602-A77A-B49A98A89C63}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{A1562C6D-E236-43AF-954F-6167E7CD7251}"/>
-    <hyperlink ref="C26" r:id="rId22" xr:uid="{6BC9CCCD-952F-4CAC-A9BD-7318936258BC}"/>
-    <hyperlink ref="C28" r:id="rId23" xr:uid="{9E9F9141-BA97-45F5-90A8-F78C0F4C87F3}"/>
-    <hyperlink ref="C11" r:id="rId24" xr:uid="{497F5D33-8EDB-46D7-8DBA-ECC2D8ED8D92}"/>
-    <hyperlink ref="C12:C14" r:id="rId25" display="http://54.242.21.20:8000" xr:uid="{82E96F5F-F380-4DCA-8D88-32B10DE10577}"/>
-    <hyperlink ref="C12" r:id="rId26" xr:uid="{9D3C7B6F-1AE9-4777-AADF-6B0EC40A03A4}"/>
-    <hyperlink ref="C13" r:id="rId27" xr:uid="{657EE5AE-461E-4EC9-927F-D7E008AB698D}"/>
-    <hyperlink ref="C14" r:id="rId28" xr:uid="{4CF95B05-FEBB-4A37-AB35-113BFDE287D4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab_Credential.xlsx
+++ b/Lab_Credential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\Accenture_SPLK_19_01_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E334F3D-F612-4AE3-9809-D530B0108D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B7DA00-B61A-477B-9FC3-78F180730E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D9C2E8B-53EC-4BB6-9A9C-6BD3D6A7AF64}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D9C2E8B-53EC-4BB6-9A9C-6BD3D6A7AF64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A680065A-BB2B-42F3-A01D-A295B13ED672}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,13 +739,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -992,7 +992,7 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1060,7 +1060,7 @@
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1128,7 +1128,7 @@
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1192,7 +1192,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
